--- a/CordillerasDiagrams/Villagomez2011-tabla5.xlsx
+++ b/CordillerasDiagrams/Villagomez2011-tabla5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\prog\github\geological-menagerie\CordillerasDiagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\prog\_github\geological-menagerie\CordillerasDiagrams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A12376-B71F-4525-AC47-835FB16C41EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0708764-AD40-432B-AD07-DFC1A47C7899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C1C17CDA-6738-48CD-A7F5-8C98E405C28D}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{C1C17CDA-6738-48CD-A7F5-8C98E405C28D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1057,11 +1057,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC6CE64-999C-413C-B97B-C9038686027A}">
   <dimension ref="A1:BA74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AZ35" sqref="AZ35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:53">
       <c r="A1" t="s">
